--- a/AAII_Financials/Yearly/ZMENY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZMENY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>643100</v>
+        <v>613100</v>
       </c>
       <c r="E8" s="3">
-        <v>586800</v>
+        <v>559400</v>
       </c>
       <c r="F8" s="3">
-        <v>389700</v>
+        <v>371500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>351800</v>
+        <v>335400</v>
       </c>
       <c r="E9" s="3">
-        <v>321800</v>
+        <v>306800</v>
       </c>
       <c r="F9" s="3">
-        <v>241100</v>
+        <v>229800</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>291300</v>
+        <v>277700</v>
       </c>
       <c r="E10" s="3">
-        <v>265000</v>
+        <v>252600</v>
       </c>
       <c r="F10" s="3">
-        <v>148600</v>
+        <v>141600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>56900</v>
+        <v>54200</v>
       </c>
       <c r="E12" s="3">
-        <v>46400</v>
+        <v>44200</v>
       </c>
       <c r="F12" s="3">
-        <v>34700</v>
+        <v>33000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>849900</v>
+        <v>810200</v>
       </c>
       <c r="E17" s="3">
-        <v>774900</v>
+        <v>738700</v>
       </c>
       <c r="F17" s="3">
-        <v>621200</v>
+        <v>592200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-206800</v>
+        <v>-197100</v>
       </c>
       <c r="E18" s="3">
-        <v>-188100</v>
+        <v>-179300</v>
       </c>
       <c r="F18" s="3">
-        <v>-231500</v>
+        <v>-220700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34900</v>
+        <v>33300</v>
       </c>
       <c r="E20" s="3">
-        <v>40700</v>
+        <v>38800</v>
       </c>
       <c r="F20" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-167900</v>
+        <v>-160100</v>
       </c>
       <c r="E21" s="3">
-        <v>-143200</v>
+        <v>-136500</v>
       </c>
       <c r="F21" s="3">
-        <v>-215800</v>
+        <v>-205700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-171900</v>
+        <v>-163900</v>
       </c>
       <c r="E23" s="3">
-        <v>-147400</v>
+        <v>-140500</v>
       </c>
       <c r="F23" s="3">
-        <v>-219400</v>
+        <v>-209100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-171900</v>
+        <v>-163900</v>
       </c>
       <c r="E26" s="3">
-        <v>-147800</v>
+        <v>-140900</v>
       </c>
       <c r="F26" s="3">
-        <v>-219600</v>
+        <v>-209400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E27" s="3">
-        <v>-285100</v>
+        <v>-271700</v>
       </c>
       <c r="F27" s="3">
-        <v>-293800</v>
+        <v>-280100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34900</v>
+        <v>-33300</v>
       </c>
       <c r="E32" s="3">
-        <v>-40700</v>
+        <v>-38800</v>
       </c>
       <c r="F32" s="3">
-        <v>-12100</v>
+        <v>-11600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E33" s="3">
-        <v>-285100</v>
+        <v>-271700</v>
       </c>
       <c r="F33" s="3">
-        <v>-293800</v>
+        <v>-280100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E35" s="3">
-        <v>-285100</v>
+        <v>-271700</v>
       </c>
       <c r="F35" s="3">
-        <v>-293800</v>
+        <v>-280100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>309100</v>
+        <v>294700</v>
       </c>
       <c r="E41" s="3">
-        <v>105400</v>
+        <v>100400</v>
       </c>
       <c r="F41" s="3">
-        <v>244300</v>
+        <v>232900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="E42" s="3">
-        <v>542900</v>
+        <v>517500</v>
       </c>
       <c r="F42" s="3">
-        <v>179300</v>
+        <v>170900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="E43" s="3">
-        <v>17900</v>
+        <v>17000</v>
       </c>
       <c r="F43" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29300</v>
+        <v>28000</v>
       </c>
       <c r="E45" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="F45" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>362400</v>
+        <v>345400</v>
       </c>
       <c r="E46" s="3">
-        <v>702600</v>
+        <v>669700</v>
       </c>
       <c r="F46" s="3">
-        <v>445600</v>
+        <v>424800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>45600</v>
+        <v>43500</v>
       </c>
       <c r="F48" s="3">
-        <v>36600</v>
+        <v>34900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="F52" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>369000</v>
+        <v>351800</v>
       </c>
       <c r="E54" s="3">
-        <v>793000</v>
+        <v>755900</v>
       </c>
       <c r="F54" s="3">
-        <v>487200</v>
+        <v>464400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>490800</v>
+        <v>467900</v>
       </c>
       <c r="E59" s="3">
-        <v>650700</v>
+        <v>620300</v>
       </c>
       <c r="F59" s="3">
-        <v>478000</v>
+        <v>455600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>490800</v>
+        <v>467900</v>
       </c>
       <c r="E60" s="3">
-        <v>650700</v>
+        <v>620300</v>
       </c>
       <c r="F60" s="3">
-        <v>478000</v>
+        <v>455600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>174400</v>
+        <v>166300</v>
       </c>
       <c r="F62" s="3">
-        <v>126100</v>
+        <v>120200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>492700</v>
+        <v>469700</v>
       </c>
       <c r="E66" s="3">
-        <v>825200</v>
+        <v>786600</v>
       </c>
       <c r="F66" s="3">
-        <v>604100</v>
+        <v>575900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>908400</v>
+        <v>865900</v>
       </c>
       <c r="F70" s="3">
-        <v>517500</v>
+        <v>493300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1440500</v>
+        <v>-1373100</v>
       </c>
       <c r="E72" s="3">
-        <v>-928000</v>
+        <v>-884600</v>
       </c>
       <c r="F72" s="3">
-        <v>-642900</v>
+        <v>-612800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-123700</v>
+        <v>-117900</v>
       </c>
       <c r="E76" s="3">
-        <v>-940600</v>
+        <v>-896600</v>
       </c>
       <c r="F76" s="3">
-        <v>-634500</v>
+        <v>-604800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-495700</v>
+        <v>-472500</v>
       </c>
       <c r="E81" s="3">
-        <v>-285100</v>
+        <v>-271700</v>
       </c>
       <c r="F81" s="3">
-        <v>-293800</v>
+        <v>-280100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>4000</v>
       </c>
-      <c r="E83" s="3">
-        <v>4200</v>
-      </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-452500</v>
+        <v>-431300</v>
       </c>
       <c r="E89" s="3">
-        <v>50300</v>
+        <v>47900</v>
       </c>
       <c r="F89" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>571300</v>
+        <v>544600</v>
       </c>
       <c r="E94" s="3">
-        <v>-408000</v>
+        <v>-389000</v>
       </c>
       <c r="F94" s="3">
-        <v>-150200</v>
+        <v>-143200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>80200</v>
+        <v>76400</v>
       </c>
       <c r="E100" s="3">
-        <v>250300</v>
+        <v>238600</v>
       </c>
       <c r="F100" s="3">
-        <v>115100</v>
+        <v>109700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8300</v>
+        <v>-7900</v>
       </c>
       <c r="E101" s="3">
-        <v>-15400</v>
+        <v>-14600</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>190700</v>
+        <v>181800</v>
       </c>
       <c r="E102" s="3">
-        <v>-122800</v>
+        <v>-117000</v>
       </c>
       <c r="F102" s="3">
-        <v>-20400</v>
+        <v>-19500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ZMENY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ZMENY_YR_FIN.xlsx
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>613100</v>
+        <v>632500</v>
       </c>
       <c r="E8" s="3">
-        <v>559400</v>
+        <v>577100</v>
       </c>
       <c r="F8" s="3">
-        <v>371500</v>
+        <v>383300</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>335400</v>
+        <v>346000</v>
       </c>
       <c r="E9" s="3">
-        <v>306800</v>
+        <v>316500</v>
       </c>
       <c r="F9" s="3">
-        <v>229800</v>
+        <v>237100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>277700</v>
+        <v>286500</v>
       </c>
       <c r="E10" s="3">
-        <v>252600</v>
+        <v>260600</v>
       </c>
       <c r="F10" s="3">
-        <v>141600</v>
+        <v>146100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>54200</v>
+        <v>55900</v>
       </c>
       <c r="E12" s="3">
-        <v>44200</v>
+        <v>45700</v>
       </c>
       <c r="F12" s="3">
-        <v>33000</v>
+        <v>34100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>810200</v>
+        <v>835900</v>
       </c>
       <c r="E17" s="3">
-        <v>738700</v>
+        <v>762200</v>
       </c>
       <c r="F17" s="3">
-        <v>592200</v>
+        <v>611000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-197100</v>
+        <v>-203400</v>
       </c>
       <c r="E18" s="3">
-        <v>-179300</v>
+        <v>-185000</v>
       </c>
       <c r="F18" s="3">
-        <v>-220700</v>
+        <v>-227700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -991,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33300</v>
+        <v>34300</v>
       </c>
       <c r="E20" s="3">
-        <v>38800</v>
+        <v>40100</v>
       </c>
       <c r="F20" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-160100</v>
+        <v>-165100</v>
       </c>
       <c r="E21" s="3">
-        <v>-136500</v>
+        <v>-140800</v>
       </c>
       <c r="F21" s="3">
-        <v>-205700</v>
+        <v>-212200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-163900</v>
+        <v>-169100</v>
       </c>
       <c r="E23" s="3">
-        <v>-140500</v>
+        <v>-145000</v>
       </c>
       <c r="F23" s="3">
-        <v>-209100</v>
+        <v>-215800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-163900</v>
+        <v>-169100</v>
       </c>
       <c r="E26" s="3">
-        <v>-140900</v>
+        <v>-145400</v>
       </c>
       <c r="F26" s="3">
-        <v>-209400</v>
+        <v>-216000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E27" s="3">
-        <v>-271700</v>
+        <v>-280300</v>
       </c>
       <c r="F27" s="3">
-        <v>-280100</v>
+        <v>-289000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1315,13 +1315,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33300</v>
+        <v>-34300</v>
       </c>
       <c r="E32" s="3">
-        <v>-38800</v>
+        <v>-40100</v>
       </c>
       <c r="F32" s="3">
-        <v>-11600</v>
+        <v>-11900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E33" s="3">
-        <v>-271700</v>
+        <v>-280300</v>
       </c>
       <c r="F33" s="3">
-        <v>-280100</v>
+        <v>-289000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E35" s="3">
-        <v>-271700</v>
+        <v>-280300</v>
       </c>
       <c r="F35" s="3">
-        <v>-280100</v>
+        <v>-289000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>294700</v>
+        <v>304000</v>
       </c>
       <c r="E41" s="3">
-        <v>100400</v>
+        <v>103600</v>
       </c>
       <c r="F41" s="3">
-        <v>232900</v>
+        <v>240300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="E42" s="3">
-        <v>517500</v>
+        <v>534000</v>
       </c>
       <c r="F42" s="3">
-        <v>170900</v>
+        <v>176300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="E43" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F43" s="3">
         <v>17000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>16500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28000</v>
+        <v>28800</v>
       </c>
       <c r="E45" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="F45" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,13 +1616,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>345400</v>
+        <v>356400</v>
       </c>
       <c r="E46" s="3">
-        <v>669700</v>
+        <v>691000</v>
       </c>
       <c r="F46" s="3">
-        <v>424800</v>
+        <v>438200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>34800</v>
+        <v>35900</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1670,13 +1670,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>43500</v>
+        <v>44800</v>
       </c>
       <c r="F48" s="3">
-        <v>34900</v>
+        <v>36000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1781,10 +1781,10 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="F52" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>351800</v>
+        <v>362900</v>
       </c>
       <c r="E54" s="3">
-        <v>755900</v>
+        <v>779900</v>
       </c>
       <c r="F54" s="3">
-        <v>464400</v>
+        <v>479100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>467900</v>
+        <v>482700</v>
       </c>
       <c r="E59" s="3">
-        <v>620300</v>
+        <v>640000</v>
       </c>
       <c r="F59" s="3">
-        <v>455600</v>
+        <v>470100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,13 +1966,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>467900</v>
+        <v>482700</v>
       </c>
       <c r="E60" s="3">
-        <v>620300</v>
+        <v>640000</v>
       </c>
       <c r="F60" s="3">
-        <v>455600</v>
+        <v>470100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2020,13 +2020,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E62" s="3">
-        <v>166300</v>
+        <v>171600</v>
       </c>
       <c r="F62" s="3">
-        <v>120200</v>
+        <v>124100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>469700</v>
+        <v>484600</v>
       </c>
       <c r="E66" s="3">
-        <v>786600</v>
+        <v>811500</v>
       </c>
       <c r="F66" s="3">
-        <v>575900</v>
+        <v>594200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>865900</v>
+        <v>893400</v>
       </c>
       <c r="F70" s="3">
-        <v>493300</v>
+        <v>509000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1373100</v>
+        <v>-1416700</v>
       </c>
       <c r="E72" s="3">
-        <v>-884600</v>
+        <v>-912700</v>
       </c>
       <c r="F72" s="3">
-        <v>-612800</v>
+        <v>-632300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-117900</v>
+        <v>-121700</v>
       </c>
       <c r="E76" s="3">
-        <v>-896600</v>
+        <v>-925000</v>
       </c>
       <c r="F76" s="3">
-        <v>-604800</v>
+        <v>-624000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-472500</v>
+        <v>-487500</v>
       </c>
       <c r="E81" s="3">
-        <v>-271700</v>
+        <v>-280300</v>
       </c>
       <c r="F81" s="3">
-        <v>-280100</v>
+        <v>-289000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-431300</v>
+        <v>-445000</v>
       </c>
       <c r="E89" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="F89" s="3">
-        <v>10400</v>
+        <v>10800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="E91" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>544600</v>
+        <v>561900</v>
       </c>
       <c r="E94" s="3">
-        <v>-389000</v>
+        <v>-401300</v>
       </c>
       <c r="F94" s="3">
-        <v>-143200</v>
+        <v>-147700</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>76400</v>
+        <v>78800</v>
       </c>
       <c r="E100" s="3">
-        <v>238600</v>
+        <v>246200</v>
       </c>
       <c r="F100" s="3">
-        <v>109700</v>
+        <v>113200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="E101" s="3">
-        <v>-14600</v>
+        <v>-15100</v>
       </c>
       <c r="F101" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>181800</v>
+        <v>187500</v>
       </c>
       <c r="E102" s="3">
-        <v>-117000</v>
+        <v>-120800</v>
       </c>
       <c r="F102" s="3">
-        <v>-19500</v>
+        <v>-20100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
